--- a/data/categorias.xlsx
+++ b/data/categorias.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Washington\Documents\Proyecto_final_probando\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Washington\Documents\ppp\proyecto 28-8-2023\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>categoria</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>arte</t>
   </si>
 </sst>
 </file>
@@ -373,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -393,28 +396,51 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
